--- a/rpq_problem/stats/stats.xlsx
+++ b/rpq_problem/stats/stats.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\rpq_problem\stats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F0051-CC0E-4B3E-BCD7-3939FAD4834D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+  <si>
+    <t>Cmax</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>ilość</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +89,1324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>t (ilości zadań) dla podstawowego</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> schrage</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>basic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.9999008178710901E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2075366973876898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9922180175781201E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34070396423339E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.64058208465576E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.08000183105468E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6995944976806598E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3207321166992099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7599439620971605E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.144993066787719</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.234409475326538</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33340187072753902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42900090217590298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44318367958068799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48039257049560502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64100905418395904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74519038200378396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED15-4C94-8305-14B3B71CDCC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>priority</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$26:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$26:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.9976577758788995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2001037597656201E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3999691009521399E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9792537689208899E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0001850128173799E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.80675315856933E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56000137329101E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.47924327850341E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10500636100768999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42400097846984802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99750466346740696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4278077602386401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.68781309127807</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6764053344726499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4268050670623702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4476756572723302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3352672100067098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ED15-4C94-8305-14B3B71CDCC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1921045344"/>
+        <c:axId val="1921045760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1921045344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ilość zadań</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921045760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1921045760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>t[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921045344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1695449</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA80ACE4-FB1E-4CE1-95AD-F42C62CA843A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1671,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>3.9999008178710901E-3</v>
+      </c>
+      <c r="C2">
+        <v>2700.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>7.2075366973876898E-3</v>
+      </c>
+      <c r="C3">
+        <v>2867.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>9.9922180175781201E-3</v>
+      </c>
+      <c r="C4">
+        <v>4055.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>1.34070396423339E-2</v>
+      </c>
+      <c r="C5">
+        <v>5517.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>1.64058208465576E-2</v>
+      </c>
+      <c r="C6">
+        <v>7020.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>2.08000183105468E-2</v>
+      </c>
+      <c r="C7">
+        <v>8193.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8">
+        <v>2.6995944976806598E-2</v>
+      </c>
+      <c r="C8">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>3.3207321166992099E-2</v>
+      </c>
+      <c r="C9">
+        <v>13956.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>6.7599439620971605E-2</v>
+      </c>
+      <c r="C10">
+        <v>27447.599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11">
+        <v>0.144993066787719</v>
+      </c>
+      <c r="C11">
+        <v>54996.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3000</v>
+      </c>
+      <c r="B12">
+        <v>0.234409475326538</v>
+      </c>
+      <c r="C12">
+        <v>82285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4000</v>
+      </c>
+      <c r="B13">
+        <v>0.33340187072753902</v>
+      </c>
+      <c r="C13">
+        <v>110485.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5000</v>
+      </c>
+      <c r="B14">
+        <v>0.42900090217590298</v>
+      </c>
+      <c r="C14">
+        <v>136814.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6000</v>
+      </c>
+      <c r="B15">
+        <v>0.44318367958068799</v>
+      </c>
+      <c r="C15">
+        <v>166169.79999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <v>0.48039257049560502</v>
+      </c>
+      <c r="C16">
+        <v>193201.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8000</v>
+      </c>
+      <c r="B17">
+        <v>0.64100905418395904</v>
+      </c>
+      <c r="C17">
+        <v>220181.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10000</v>
+      </c>
+      <c r="B18">
+        <v>0.74519038200378396</v>
+      </c>
+      <c r="C18">
+        <v>275554.59999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>2879</v>
+      </c>
+      <c r="C26">
+        <v>5.9976577758788995E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>2945.8</v>
+      </c>
+      <c r="C27">
+        <v>1.2001037597656201E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>150</v>
+      </c>
+      <c r="B28">
+        <v>4277.8</v>
+      </c>
+      <c r="C28">
+        <v>2.3999691009521399E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>5530</v>
+      </c>
+      <c r="C29">
+        <v>3.9792537689208899E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>6920.8</v>
+      </c>
+      <c r="C30">
+        <v>6.0001850128173799E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>8272.4</v>
+      </c>
+      <c r="C31">
+        <v>8.80675315856933E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>400</v>
+      </c>
+      <c r="B32">
+        <v>10999</v>
+      </c>
+      <c r="C32">
+        <v>1.56000137329101E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>500</v>
+      </c>
+      <c r="B33">
+        <v>13590.6</v>
+      </c>
+      <c r="C33">
+        <v>2.47924327850341E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1000</v>
+      </c>
+      <c r="B34">
+        <v>27509.8</v>
+      </c>
+      <c r="C34">
+        <v>0.10500636100768999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2000</v>
+      </c>
+      <c r="B35">
+        <v>55040</v>
+      </c>
+      <c r="C35">
+        <v>0.42400097846984802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3000</v>
+      </c>
+      <c r="B36">
+        <v>82132.2</v>
+      </c>
+      <c r="C36">
+        <v>0.99750466346740696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4000</v>
+      </c>
+      <c r="B37">
+        <v>109558.6</v>
+      </c>
+      <c r="C37">
+        <v>1.4278077602386401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5000</v>
+      </c>
+      <c r="B38">
+        <v>138057.20000000001</v>
+      </c>
+      <c r="C38">
+        <v>1.68781309127807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6000</v>
+      </c>
+      <c r="B39">
+        <v>164545.20000000001</v>
+      </c>
+      <c r="C39">
+        <v>2.6764053344726499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7000</v>
+      </c>
+      <c r="B40">
+        <v>192317.2</v>
+      </c>
+      <c r="C40">
+        <v>3.4268050670623702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8000</v>
+      </c>
+      <c r="B41">
+        <v>218690.6</v>
+      </c>
+      <c r="C41">
+        <v>4.4476756572723302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10000</v>
+      </c>
+      <c r="B42">
+        <v>275505.40000000002</v>
+      </c>
+      <c r="C42">
+        <v>7.3352672100067098</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/rpq_problem/stats/stats.xlsx
+++ b/rpq_problem/stats/stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\rpq_problem\stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F0051-CC0E-4B3E-BCD7-3939FAD4834D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5977068E-7F34-4F57-89BE-65867AAA6348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Cmax</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>ilość</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>pmtn</t>
   </si>
 </sst>
 </file>
@@ -126,13 +132,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>t (ilości zadań) dla podstawowego</a:t>
+              <a:t>Podstawowy</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> schrage</a:t>
+              <a:t> algorytm Shrage</a:t>
             </a:r>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -161,7 +167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -175,13 +181,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>basic</c:v>
+            <c:v>Basic</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -201,12 +205,28 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$2:$A$18</c:f>
+              <c:f>Arkusz1!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -214,48 +234,45 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -263,60 +280,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$18</c:f>
+              <c:f>Arkusz1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.9999008178710901E-3</c:v>
+                  <c:v>6.8799999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2075366973876898E-3</c:v>
+                  <c:v>1.3509999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9922180175781201E-3</c:v>
+                  <c:v>2.4230000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.34070396423339E-2</c:v>
+                  <c:v>2.4729999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.64058208465576E-2</c:v>
+                  <c:v>2.928E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.08000183105468E-2</c:v>
+                  <c:v>3.9030000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6995944976806598E-2</c:v>
+                  <c:v>4.9730000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3207321166992099E-2</c:v>
+                  <c:v>0.10166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7599439620971605E-2</c:v>
+                  <c:v>0.22126000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.144993066787719</c:v>
+                  <c:v>0.37897999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.234409475326538</c:v>
+                  <c:v>0.55327000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33340187072753902</c:v>
+                  <c:v>0.7329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42900090217590298</c:v>
+                  <c:v>0.93047000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44318367958068799</c:v>
+                  <c:v>1.1462399999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48039257049560502</c:v>
+                  <c:v>1.36503</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64100905418395904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.74519038200378396</c:v>
+                  <c:v>1.9091499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,7 +338,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED15-4C94-8305-14B3B71CDCC2}"/>
+              <c16:uniqueId val="{00000000-7A09-4BFA-BFA1-62D6463480FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -332,13 +346,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>priority</c:v>
+            <c:v>Basic_with_queue</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -358,12 +370,28 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$26:$A$42</c:f>
+              <c:f>Arkusz1!$A$26:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -371,48 +399,45 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -420,60 +445,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$26:$C$42</c:f>
+              <c:f>Arkusz1!$B$26:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.9976577758788995E-4</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2001037597656201E-3</c:v>
+                  <c:v>3.5200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3999691009521399E-3</c:v>
+                  <c:v>5.1599999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9792537689208899E-3</c:v>
+                  <c:v>8.5900000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0001850128173799E-3</c:v>
+                  <c:v>1.179E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.80675315856933E-3</c:v>
+                  <c:v>1.9779999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.56000137329101E-2</c:v>
+                  <c:v>2.7660000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.47924327850341E-2</c:v>
+                  <c:v>0.10484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10500636100768999</c:v>
+                  <c:v>0.42181000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42400097846984802</c:v>
+                  <c:v>0.96702999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99750466346740696</c:v>
+                  <c:v>1.76427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4278077602386401</c:v>
+                  <c:v>2.96454</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.68781309127807</c:v>
+                  <c:v>4.4439799999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6764053344726499</c:v>
+                  <c:v>6.0014099999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4268050670623702</c:v>
+                  <c:v>7.8538300000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4476756572723302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.3352672100067098</c:v>
+                  <c:v>13.1678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -481,11 +503,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ED15-4C94-8305-14B3B71CDCC2}"/>
+              <c16:uniqueId val="{00000001-7A09-4BFA-BFA1-62D6463480FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -493,11 +516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1921045344"/>
-        <c:axId val="1921045760"/>
+        <c:axId val="198882944"/>
+        <c:axId val="198883272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1921045344"/>
+        <c:axId val="198882944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,14 +561,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>ilość zadań</a:t>
+                  <a:t>Ilość zadań</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -574,7 +592,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -612,15 +630,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1921045760"/>
+        <c:crossAx val="198883272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1921045760"/>
+        <c:axId val="198883272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,8 +679,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>t[s]</a:t>
+                  <a:t>Czas[s]</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -691,7 +710,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -729,10 +748,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1921045344"/>
+        <c:crossAx val="198882944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -745,7 +764,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -771,12 +790,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -801,7 +827,743 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>Algorytm Shrage z przerwaniami</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pmtn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$3:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.13E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.631E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2450000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8080000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.777E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7989999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53773000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70872999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88622999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.10633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8359000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5D0-4948-BA7A-DF11E48E6C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pmtn_with_queue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$26:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$26:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3299999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.107E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0969999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0179999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6420000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20211000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62992999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.31457</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3008700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5600399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1415199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0621799999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.16221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.57067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D5D0-4948-BA7A-DF11E48E6C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="198882944"/>
+        <c:axId val="198883272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="198882944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość zadań</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198883272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="198883272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198882944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -852,6 +1614,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1368,27 +2170,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1695449</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Wykres 9">
+        <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA80ACE4-FB1E-4CE1-95AD-F42C62CA843A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A971EAC-9AF0-40AC-A478-BA7E64EF4AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,6 +2719,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4283C61-360D-41C8-9CA7-F25F3B1E3383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1672,418 +3028,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>3.9999008178710901E-3</v>
-      </c>
-      <c r="C2">
-        <v>2700.6</v>
+      <c r="B3">
+        <v>6.8799999999999998E-3</v>
+      </c>
+      <c r="C3">
+        <v>1513</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>6.13E-3</v>
+      </c>
+      <c r="G3">
+        <v>1492</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>100</v>
       </c>
-      <c r="B3">
-        <v>7.2075366973876898E-3</v>
-      </c>
-      <c r="C3">
-        <v>2867.4</v>
+      <c r="B4">
+        <v>1.3509999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>3076</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>3070</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>150</v>
-      </c>
-      <c r="B4">
-        <v>9.9922180175781201E-3</v>
-      </c>
-      <c r="C4">
-        <v>4055.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
       <c r="B5">
-        <v>1.34070396423339E-2</v>
+        <v>2.4230000000000002E-2</v>
       </c>
       <c r="C5">
-        <v>5517.2</v>
+        <v>6416</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>2.631E-2</v>
+      </c>
+      <c r="G5">
+        <v>6398</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
       <c r="B6">
-        <v>1.64058208465576E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>7020.6</v>
+        <v>12645.8</v>
+      </c>
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>2.2450000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>12645.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300</v>
       </c>
       <c r="B7">
-        <v>2.08000183105468E-2</v>
+        <v>2.928E-2</v>
       </c>
       <c r="C7">
-        <v>8193.4</v>
+        <v>15938.4</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G7">
+        <v>15938.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>400</v>
       </c>
       <c r="B8">
-        <v>2.6995944976806598E-2</v>
+        <v>3.9030000000000002E-2</v>
       </c>
       <c r="C8">
-        <v>11110</v>
+        <v>20867.8</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>3.8080000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>20867.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
       <c r="B9">
-        <v>3.3207321166992099E-2</v>
+        <v>4.9730000000000003E-2</v>
       </c>
       <c r="C9">
-        <v>13956.6</v>
+        <v>26171.4</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>4.777E-2</v>
+      </c>
+      <c r="G9">
+        <v>26171.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000</v>
       </c>
       <c r="B10">
-        <v>6.7599439620971605E-2</v>
+        <v>0.10166</v>
       </c>
       <c r="C10">
-        <v>27447.599999999999</v>
+        <v>52600</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>9.7989999999999994E-2</v>
+      </c>
+      <c r="G10">
+        <v>52600</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2000</v>
       </c>
       <c r="B11">
-        <v>0.144993066787719</v>
+        <v>0.22126000000000001</v>
       </c>
       <c r="C11">
-        <v>54996.4</v>
+        <v>104714.6</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <v>0.21404999999999999</v>
+      </c>
+      <c r="G11">
+        <v>104714.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3000</v>
       </c>
       <c r="B12">
-        <v>0.234409475326538</v>
+        <v>0.37897999999999998</v>
       </c>
       <c r="C12">
-        <v>82285</v>
+        <v>156279</v>
+      </c>
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <v>0.36021999999999998</v>
+      </c>
+      <c r="G12">
+        <v>156279</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4000</v>
       </c>
       <c r="B13">
-        <v>0.33340187072753902</v>
+        <v>0.55327000000000004</v>
       </c>
       <c r="C13">
-        <v>110485.6</v>
+        <v>210550</v>
+      </c>
+      <c r="E13">
+        <v>4000</v>
+      </c>
+      <c r="F13">
+        <v>0.53773000000000004</v>
+      </c>
+      <c r="G13">
+        <v>210550</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5000</v>
       </c>
       <c r="B14">
-        <v>0.42900090217590298</v>
+        <v>0.7329</v>
       </c>
       <c r="C14">
-        <v>136814.6</v>
+        <v>262340</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+      <c r="F14">
+        <v>0.70872999999999997</v>
+      </c>
+      <c r="G14">
+        <v>262340</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6000</v>
       </c>
       <c r="B15">
-        <v>0.44318367958068799</v>
+        <v>0.93047000000000002</v>
       </c>
       <c r="C15">
-        <v>166169.79999999999</v>
+        <v>316206.59999999998</v>
+      </c>
+      <c r="E15">
+        <v>6000</v>
+      </c>
+      <c r="F15">
+        <v>0.88622999999999996</v>
+      </c>
+      <c r="G15">
+        <v>316206.59999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7000</v>
       </c>
       <c r="B16">
-        <v>0.48039257049560502</v>
+        <v>1.1462399999999999</v>
       </c>
       <c r="C16">
-        <v>193201.2</v>
+        <v>367161</v>
+      </c>
+      <c r="E16">
+        <v>7000</v>
+      </c>
+      <c r="F16">
+        <v>1.10633</v>
+      </c>
+      <c r="G16">
+        <v>367161</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8000</v>
       </c>
       <c r="B17">
-        <v>0.64100905418395904</v>
+        <v>1.36503</v>
       </c>
       <c r="C17">
-        <v>220181.8</v>
+        <v>420252</v>
+      </c>
+      <c r="E17">
+        <v>8000</v>
+      </c>
+      <c r="F17">
+        <v>1.1345000000000001</v>
+      </c>
+      <c r="G17">
+        <v>420252</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000</v>
       </c>
       <c r="B18">
-        <v>0.74519038200378396</v>
+        <v>1.9091499999999999</v>
       </c>
       <c r="C18">
-        <v>275554.59999999998</v>
+        <v>526498</v>
+      </c>
+      <c r="E18">
+        <v>10000</v>
+      </c>
+      <c r="F18">
+        <v>1.8359000000000001</v>
+      </c>
+      <c r="G18">
+        <v>526498</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
         <v>1</v>
       </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
       <c r="B26">
-        <v>2879</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C26">
-        <v>5.9976577758788995E-4</v>
+        <v>1513</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="G26">
+        <v>1492</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
       <c r="B27">
-        <v>2945.8</v>
+        <v>3.5200000000000001E-3</v>
       </c>
       <c r="C27">
-        <v>1.2001037597656201E-3</v>
+        <v>3076</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="G27">
+        <v>3070</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B28">
-        <v>4277.8</v>
+        <v>5.1599999999999997E-3</v>
       </c>
       <c r="C28">
-        <v>2.3999691009521399E-3</v>
+        <v>6416</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>6.3299999999999997E-3</v>
+      </c>
+      <c r="G28">
+        <v>6398</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B29">
-        <v>5530</v>
+        <v>8.5900000000000004E-3</v>
       </c>
       <c r="C29">
-        <v>3.9792537689208899E-3</v>
+        <v>12645.8</v>
+      </c>
+      <c r="E29">
+        <v>250</v>
+      </c>
+      <c r="F29">
+        <v>3.107E-2</v>
+      </c>
+      <c r="G29">
+        <v>12645.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B30">
-        <v>6920.8</v>
+        <v>1.179E-2</v>
       </c>
       <c r="C30">
-        <v>6.0001850128173799E-3</v>
+        <v>15938.4</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>4.0969999999999999E-2</v>
+      </c>
+      <c r="G30">
+        <v>15938.4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B31">
-        <v>8272.4</v>
+        <v>1.9779999999999999E-2</v>
       </c>
       <c r="C31">
-        <v>8.80675315856933E-3</v>
+        <v>20867.8</v>
+      </c>
+      <c r="E31">
+        <v>400</v>
+      </c>
+      <c r="F31">
+        <v>6.0179999999999997E-2</v>
+      </c>
+      <c r="G31">
+        <v>20867.8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B32">
-        <v>10999</v>
+        <v>2.7660000000000001E-2</v>
       </c>
       <c r="C32">
-        <v>1.56000137329101E-2</v>
+        <v>26171.4</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>7.6420000000000002E-2</v>
+      </c>
+      <c r="G32">
+        <v>26171.4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B33">
-        <v>13590.6</v>
+        <v>0.10484</v>
       </c>
       <c r="C33">
-        <v>2.47924327850341E-2</v>
+        <v>52600</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
+        <v>0.20211000000000001</v>
+      </c>
+      <c r="G33">
+        <v>52600</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B34">
-        <v>27509.8</v>
+        <v>0.42181000000000002</v>
       </c>
       <c r="C34">
-        <v>0.10500636100768999</v>
+        <v>104714.6</v>
+      </c>
+      <c r="E34">
+        <v>2000</v>
+      </c>
+      <c r="F34">
+        <v>0.62992999999999999</v>
+      </c>
+      <c r="G34">
+        <v>104714.6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="B35">
-        <v>55040</v>
+        <v>0.96702999999999995</v>
       </c>
       <c r="C35">
-        <v>0.42400097846984802</v>
+        <v>156279</v>
+      </c>
+      <c r="E35">
+        <v>3000</v>
+      </c>
+      <c r="F35">
+        <v>1.31457</v>
+      </c>
+      <c r="G35">
+        <v>156279</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="B36">
-        <v>82132.2</v>
+        <v>1.76427</v>
       </c>
       <c r="C36">
-        <v>0.99750466346740696</v>
+        <v>210550</v>
+      </c>
+      <c r="E36">
+        <v>4000</v>
+      </c>
+      <c r="F36">
+        <v>2.3008700000000002</v>
+      </c>
+      <c r="G36">
+        <v>210550</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="B37">
-        <v>109558.6</v>
+        <v>2.96454</v>
       </c>
       <c r="C37">
-        <v>1.4278077602386401</v>
+        <v>262340</v>
+      </c>
+      <c r="E37">
+        <v>5000</v>
+      </c>
+      <c r="F37">
+        <v>3.5600399999999999</v>
+      </c>
+      <c r="G37">
+        <v>262340</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="B38">
-        <v>138057.20000000001</v>
+        <v>4.4439799999999998</v>
       </c>
       <c r="C38">
-        <v>1.68781309127807</v>
+        <v>316206.59999999998</v>
+      </c>
+      <c r="E38">
+        <v>6000</v>
+      </c>
+      <c r="F38">
+        <v>5.1415199999999999</v>
+      </c>
+      <c r="G38">
+        <v>316206.59999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="B39">
-        <v>164545.20000000001</v>
+        <v>6.0014099999999999</v>
       </c>
       <c r="C39">
-        <v>2.6764053344726499</v>
+        <v>367161</v>
+      </c>
+      <c r="E39">
+        <v>7000</v>
+      </c>
+      <c r="F39">
+        <v>7.0621799999999997</v>
+      </c>
+      <c r="G39">
+        <v>367161</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="B40">
-        <v>192317.2</v>
+        <v>7.8538300000000003</v>
       </c>
       <c r="C40">
-        <v>3.4268050670623702</v>
+        <v>420252</v>
+      </c>
+      <c r="E40">
+        <v>8000</v>
+      </c>
+      <c r="F40">
+        <v>9.16221</v>
+      </c>
+      <c r="G40">
+        <v>420252</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="B41">
-        <v>218690.6</v>
+        <v>13.1678</v>
       </c>
       <c r="C41">
-        <v>4.4476756572723302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <v>526498</v>
+      </c>
+      <c r="E41">
         <v>10000</v>
       </c>
-      <c r="B42">
-        <v>275505.40000000002</v>
-      </c>
-      <c r="C42">
-        <v>7.3352672100067098</v>
+      <c r="F41">
+        <v>14.57067</v>
+      </c>
+      <c r="G41">
+        <v>526498</v>
       </c>
     </row>
   </sheetData>

--- a/rpq_problem/stats/stats.xlsx
+++ b/rpq_problem/stats/stats.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\rpq_problem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5977068E-7F34-4F57-89BE-65867AAA6348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432F2DF9-EA7F-430B-9A93-BDDBA26682E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Cmax</t>
   </si>
@@ -43,6 +44,18 @@
   </si>
   <si>
     <t>pmtn</t>
+  </si>
+  <si>
+    <t>podstawowa lista</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>schrage</t>
+  </si>
+  <si>
+    <t>schrage heap</t>
   </si>
 </sst>
 </file>
@@ -167,7 +180,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -206,7 +219,6 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name/>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -371,7 +383,6 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name/>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -508,7 +519,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -592,7 +602,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -630,7 +640,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198883272"/>
@@ -710,7 +720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -748,7 +758,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198882944"/>
@@ -790,7 +800,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -827,7 +837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -904,7 +914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -943,7 +953,6 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name/>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -1108,7 +1117,6 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name/>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -1328,7 +1336,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1366,7 +1374,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198883272"/>
@@ -1446,7 +1454,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1484,7 +1492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198882944"/>
@@ -1526,7 +1534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1563,7 +1571,1433 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Podstawowy schrage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>podstawowa lista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.9987564086913999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.99971199035644E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.19991111755371E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999942779540997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1995716094970693E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29998683929443E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4008798599243101E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5799646377563402E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14160795211791899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58538250923156698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3477968692779501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8058013916015598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5736200809478706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.2263730764389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-132C-461F-94A8-015CD447F771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>heap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$A$25:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$B$25:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.9988746643066396E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.13989830017089E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8799543380737301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6400184631347599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.46012115478515E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2200613021850499E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.86005210876464E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6190519332885703E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16919994354248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37080125808715803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58579959869384701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0517873287200901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.86147737503051</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3816285133361799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-132C-461F-94A8-015CD447F771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1056648672"/>
+        <c:axId val="1615154192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1056648672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ilość zadań</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615154192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1615154192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056648672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Schrage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> z podziałem zadań</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>podstawowa lista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$A$44:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$B$44:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0025711059570301E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5906810760498E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1992912292480402E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0083866119384696E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1999053955078101E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29993915557861E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2799634933471601E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5398578643798799E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.141800642013549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60059413909912096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.38067970275878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9379103660583401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6699756383895803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.2316199541091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B080-4F2D-8BDB-1C3846B42FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>heap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$A$61:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$B$61:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.8097362518310502E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.26083850860595E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000146865844699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8999280929565399E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8600111007690403E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6200466156005801E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4209318161010706E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2601356506347604E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18340902328491199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.408991527557373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64259538650512604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2456082344055099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1020015954971298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.61297876834869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B080-4F2D-8BDB-1C3846B42FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1056647840"/>
+        <c:axId val="1056648672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1056647840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> zadań</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39542191987282488"/>
+              <c:y val="0.91921376126545473"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056648672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1056648672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056647840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1654,6 +3088,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2171,6 +3685,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2749,6 +5295,83 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276223</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0235F4-D8D4-4C00-A5C7-58B20425BB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4459EC58-2B25-4EE3-9FCD-D141F3556403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3030,7 +5653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
@@ -3743,4 +6366,497 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36DB85F-4075-4181-AAF6-3D75B0E03AA3}">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>3.9987564086913999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1.99971199035644E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>3.19991111755371E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>5.9999942779540997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>9.1995716094970693E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>1.29998683929443E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <v>2.4008798599243101E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>3.5799646377563402E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>0.14160795211791899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>0.58538250923156698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3000</v>
+      </c>
+      <c r="B13">
+        <v>1.3477968692779501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5000</v>
+      </c>
+      <c r="B14">
+        <v>3.8058013916015598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8000</v>
+      </c>
+      <c r="B15">
+        <v>9.5736200809478706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10000</v>
+      </c>
+      <c r="B16">
+        <v>15.2263730764389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>4.9988746643066396E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>1.13989830017089E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>1.8799543380737301E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>2.6400184631347599E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>3.46012115478515E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30">
+        <v>4.2200613021850499E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>5.86005210876464E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>500</v>
+      </c>
+      <c r="B32">
+        <v>7.6190519332885703E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1000</v>
+      </c>
+      <c r="B33">
+        <v>0.16919994354248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2000</v>
+      </c>
+      <c r="B34">
+        <v>0.37080125808715803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3000</v>
+      </c>
+      <c r="B35">
+        <v>0.58579959869384701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5000</v>
+      </c>
+      <c r="B36">
+        <v>1.0517873287200901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8000</v>
+      </c>
+      <c r="B37">
+        <v>1.86147737503051</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10000</v>
+      </c>
+      <c r="B38">
+        <v>2.3816285133361799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>4.0025711059570301E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>1.5906810760498E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>150</v>
+      </c>
+      <c r="B46">
+        <v>3.1992912292480402E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>200</v>
+      </c>
+      <c r="B47">
+        <v>6.0083866119384696E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>250</v>
+      </c>
+      <c r="B48">
+        <v>9.1999053955078101E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>300</v>
+      </c>
+      <c r="B49">
+        <v>1.29993915557861E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>400</v>
+      </c>
+      <c r="B50">
+        <v>2.2799634933471601E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51">
+        <v>3.5398578643798799E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1000</v>
+      </c>
+      <c r="B52">
+        <v>0.141800642013549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2000</v>
+      </c>
+      <c r="B53">
+        <v>0.60059413909912096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3000</v>
+      </c>
+      <c r="B54">
+        <v>1.38067970275878</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5000</v>
+      </c>
+      <c r="B55">
+        <v>3.9379103660583401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8000</v>
+      </c>
+      <c r="B56">
+        <v>9.6699756383895803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10000</v>
+      </c>
+      <c r="B57">
+        <v>15.2316199541091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>50</v>
+      </c>
+      <c r="B61">
+        <v>5.8097362518310502E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>100</v>
+      </c>
+      <c r="B62">
+        <v>1.26083850860595E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <v>2.1000146865844699E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>200</v>
+      </c>
+      <c r="B64">
+        <v>2.8999280929565399E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>250</v>
+      </c>
+      <c r="B65">
+        <v>3.8600111007690403E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>300</v>
+      </c>
+      <c r="B66">
+        <v>4.6200466156005801E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>400</v>
+      </c>
+      <c r="B67">
+        <v>6.4209318161010706E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>500</v>
+      </c>
+      <c r="B68">
+        <v>8.2601356506347604E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1000</v>
+      </c>
+      <c r="B69">
+        <v>0.18340902328491199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2000</v>
+      </c>
+      <c r="B70">
+        <v>0.408991527557373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3000</v>
+      </c>
+      <c r="B71">
+        <v>0.64259538650512604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5000</v>
+      </c>
+      <c r="B72">
+        <v>1.2456082344055099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8000</v>
+      </c>
+      <c r="B73">
+        <v>2.1020015954971298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>10000</v>
+      </c>
+      <c r="B74">
+        <v>2.61297876834869</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/rpq_problem/stats/stats.xlsx
+++ b/rpq_problem/stats/stats.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\rpq_problem\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432F2DF9-EA7F-430B-9A93-BDDBA26682E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE504D-8737-46DA-82F0-1998F0D5D09D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="schrage1" sheetId="1" r:id="rId1"/>
+    <sheet name="schrage2" sheetId="2" r:id="rId2"/>
+    <sheet name="Porównanie czasów Carlier" sheetId="3" r:id="rId3"/>
+    <sheet name="Wnioski Carlier + tabu search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Cmax</t>
   </si>
@@ -57,12 +59,51 @@
   <si>
     <t>schrage heap</t>
   </si>
+  <si>
+    <t>Przy losowym starcie</t>
+  </si>
+  <si>
+    <t>Tabu search znacznie dłużej się liczy szczególnie przy generowaniu całego sąsiedztwa . Dla 2000 zadań - czas jest 100 razy gorszy niż Carlier, a wyniki podobne lub minimalnie gorsze</t>
+  </si>
+  <si>
+    <t>Przy starcie od schrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmiana sąsiedztwa poprzez insert daje dużo lepsze wyniki niż swap </t>
+  </si>
+  <si>
+    <t>Generowanie całego sąsiedztwa daje lepsze lub takie same wyniki przy takich samych ustawieniach (to samo na start, ta sama liczba iteracji), ale czas jest znacznie gorszy (dla 50 zadań 100 razy gorszy)</t>
+  </si>
+  <si>
+    <t>Dla dużej ilości zadań (500+) nie opłaca się już używać tabu searcha z pełnym sąsiedztwem chyba że chcemy mieć super wynik</t>
+  </si>
+  <si>
+    <t>wyniki zawsze lepsze lub równe carlierowi</t>
+  </si>
+  <si>
+    <t>czas nieznacznie gorszy (nakład jedynie na warunek poczatkowy)</t>
+  </si>
+  <si>
+    <t>Ogólnie</t>
+  </si>
+  <si>
+    <t>Czasy są znacząco gorsze w tabu searchu a wyniki praktycznie takie same -&gt; nie opłaca się stosować tabu searcha dla rpq</t>
+  </si>
+  <si>
+    <t>Carlier na start</t>
+  </si>
+  <si>
+    <t>Narzuty nie są znacznie większe a na początek mamy już bardzo dobry harmonogoram i Cmaxa</t>
+  </si>
+  <si>
+    <t>Można uzyskać lepsze wyniki (nieliczne przypadki), ale będzie liczyło się bardzo długo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +111,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,14 +160,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,7 +355,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$3:$A$18</c:f>
+              <c:f>schrage1!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -292,7 +412,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$3:$B$18</c:f>
+              <c:f>schrage1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -399,7 +519,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$26:$A$41</c:f>
+              <c:f>schrage1!$A$26:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -456,7 +576,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$26:$B$41</c:f>
+              <c:f>schrage1!$B$26:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -969,7 +1089,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$3:$A$18</c:f>
+              <c:f>schrage1!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1026,7 +1146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$3:$F$18</c:f>
+              <c:f>schrage1!$F$3:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1133,7 +1253,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$26:$A$41</c:f>
+              <c:f>schrage1!$A$26:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1190,7 +1310,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$26:$F$41</c:f>
+              <c:f>schrage1!$F$26:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1702,7 +1822,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$A$3:$A$16</c:f>
+              <c:f>schrage2!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1753,7 +1873,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$B$3:$B$16</c:f>
+              <c:f>schrage2!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1853,7 +1973,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$A$25:$A$38</c:f>
+              <c:f>schrage2!$A$25:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1904,7 +2024,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$B$25:$B$38</c:f>
+              <c:f>schrage2!$B$25:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2411,7 +2531,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$A$44:$A$57</c:f>
+              <c:f>schrage2!$A$44:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2462,7 +2582,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$B$44:$B$57</c:f>
+              <c:f>schrage2!$B$44:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2562,7 +2682,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$A$61:$A$74</c:f>
+              <c:f>schrage2!$A$61:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2613,7 +2733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$B$61:$B$74</c:f>
+              <c:f>schrage2!$B$61:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -6372,7 +6492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36DB85F-4075-4181-AAF6-3D75B0E03AA3}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
@@ -6859,4 +6979,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DF812B-53B9-4B6D-AEEC-420A97B4B885}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2875D-0FFF-42A2-987E-555DC8AD7FA6}">
+  <dimension ref="B1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rpq_problem/stats/stats.xlsx
+++ b/rpq_problem/stats/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuba\PycharmProjects\SPD\rpq_problem\stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JA\Pictures\studia\semestr 6\SPD-L\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE504D-8737-46DA-82F0-1998F0D5D09D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED3ABEAA-3E81-45F5-9D1A-42C3C730B9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13485" yWindow="4305" windowWidth="28800" windowHeight="10755" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schrage1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Cmax</t>
   </si>
@@ -97,6 +97,48 @@
   </si>
   <si>
     <t>Można uzyskać lepsze wyniki (nieliczne przypadki), ale będzie liczyło się bardzo długo</t>
+  </si>
+  <si>
+    <t>liczba</t>
+  </si>
+  <si>
+    <t>czas</t>
+  </si>
+  <si>
+    <t>cmax</t>
+  </si>
+  <si>
+    <t>Carlier(Schrage lista)</t>
+  </si>
+  <si>
+    <t>Carlier(Schrage heap)</t>
+  </si>
+  <si>
+    <t>Wpływ strategii przeszukiwania drzewa</t>
+  </si>
+  <si>
+    <t>Przeszukiwanie typu "Greed" daje lepsze lub zbliżone wyniki do przeszukiwania w "lewo", jeżeli  droga do rozwiązania najlepszego prowadzi przez rozwiązania najlepsze lokalnie</t>
+  </si>
+  <si>
+    <t>W przypadku jeżeli rozwiązanie optymalne wymaga przejścia po gałęzi, która lokalnie nie jest najlepsza to przeszukiwanie typu "Greed" nie daje zazwyczaj lepszych czasów.</t>
+  </si>
+  <si>
+    <t>Najlepiej czasowo radzi sobie naiwny sposób przeszukiwania, polegający na wyborze przy rozgałęzieniu gałęzi najlepszej lokalnie. Wadą tego rozwiązania jest fakt, że nie zawsze metoda ta pozwala na otrzymanie rozwiązania optymalnego. Jeżeli czas jest ważniejszy niż najlepszy Cmax to wybór tego sposobu przeszukiwania drzewa będzie lepszy niż pozostałe dwa.</t>
+  </si>
+  <si>
+    <t>Od tego, która metoda przeszukiwania drzewa daje lepszy czas zależy od danych wejściowych. Jeżeli rozwiązanie znajduje się blisko lewego rozgałęzienia drzewa to przeszukiwanie w "lewo" będzie dawało dobre czasy. Jeżeli natomiast rozwiązanie wymaga przejścia się po lokalnie najlepszych rozwiazaniach to przerszukiwanie typu "Greed" będzie lepsze</t>
+  </si>
+  <si>
+    <t>W przypadku niektórych danych przeszukiwanie "w lewo" oraz "Greed" wymagają bardzo dużo czasu na uzyskanie rozwiązania. Dodając maksymalną głębokość drzewa możliwe jest przyspieszenie działania algorytmu wykorzystującego ten rodzaj przeszukiwań. Wadą jest jednak, że w takim przypadku możliwe jest, że odnalezione rozwiązanie nie będzie najlepszym.</t>
+  </si>
+  <si>
+    <t>Wpływ wykorzystanej implementacji algorytmów Schrage i Schrage pmtn</t>
+  </si>
+  <si>
+    <t>Czas potrzebny na wykonanie się algorytmu Carlier w przypadku, gdy wykorzystany algorytm Schrage bazuje na podstawowej liście jest znacznie większy niż w przypadku wykorzystaniu algorytmu Schrage na kopcu wraz ze wzrostem liczby zadań.</t>
+  </si>
+  <si>
+    <t>Dla małej liczby zadań różnica w czasie jest nieznaczna, jednak różnica ta bardzo szybko rośnie w przypadku zwiększania liczby zadań.</t>
   </si>
 </sst>
 </file>
@@ -195,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,6 +254,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
@@ -300,7 +346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -722,7 +768,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -760,7 +806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198883272"/>
@@ -840,7 +886,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -878,7 +924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198882944"/>
@@ -920,7 +966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -957,7 +1003,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1034,7 +1080,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1456,7 +1502,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1494,7 +1540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198883272"/>
@@ -1574,7 +1620,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1612,7 +1658,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198882944"/>
@@ -1654,7 +1700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1691,7 +1737,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1767,7 +1813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2163,7 +2209,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2201,7 +2247,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1615154192"/>
@@ -2285,7 +2331,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2323,7 +2369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1056648672"/>
@@ -2365,7 +2411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2395,7 +2441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2476,7 +2522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2885,7 +2931,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2923,7 +2969,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1056648672"/>
@@ -3007,7 +3053,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3045,7 +3091,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1056647840"/>
@@ -3087,7 +3133,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3117,7 +3163,1445 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> działania algorytmu Carlier w zależności od ilości zadań w zależności od wykorzystanej implementacji algorytmu Schrage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Porównanie czasów Carlier'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carlier(Schrage lista)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3134999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.117900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.096800000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.123000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206.20699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA77-4B2E-8FD9-E9690DD3BAED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Porównanie czasów Carlier'!$D$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carlier(Schrage heap)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.82E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0210999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7575000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8607999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA77-4B2E-8FD9-E9690DD3BAED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="478804760"/>
+        <c:axId val="478805088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="478804760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba zadań</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478805088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478805088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478804760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Czas działania algorytmu Carlier w zależności od ilości zadań w zależności od wykorzystanej implementacji algorytmu Schrage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Porównanie czasów Carlier'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carlier(Schrage lista)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3134999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3824-4D34-95B3-9DFCB4FB436C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Porównanie czasów Carlier'!$D$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carlier(Schrage heap)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Porównanie czasów Carlier'!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.82E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28789999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3824-4D34-95B3-9DFCB4FB436C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483346416"/>
+        <c:axId val="483346744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483346416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba zadań</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483346744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483346744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483346416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3288,6 +4772,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4837,6 +6401,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5508,6 +8104,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DFA330-9138-46FF-9449-EADA1BE5D82B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27979991-8BAD-4774-86FF-B16EE7A89954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6983,106 +9656,481 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DF812B-53B9-4B6D-AEEC-420A97B4B885}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>2557</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>5272</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="C5">
+        <v>10293</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>4.82E-2</v>
+      </c>
+      <c r="F5">
+        <v>10293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>0.33610000000000001</v>
+      </c>
+      <c r="C6">
+        <v>15668</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="F6">
+        <v>15668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>400</v>
+      </c>
+      <c r="B7">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="C7">
+        <v>21581</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>0.1042</v>
+      </c>
+      <c r="F7">
+        <v>21581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="C8">
+        <v>25905</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>0.1338</v>
+      </c>
+      <c r="F8">
+        <v>25905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>600</v>
+      </c>
+      <c r="B9">
+        <v>1.3134999999999999</v>
+      </c>
+      <c r="C9">
+        <v>31812</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F9">
+        <v>31812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>700</v>
+      </c>
+      <c r="B10">
+        <v>1.7825</v>
+      </c>
+      <c r="C10">
+        <v>37068</v>
+      </c>
+      <c r="D10">
+        <v>700</v>
+      </c>
+      <c r="E10">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="F10">
+        <v>37068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>800</v>
+      </c>
+      <c r="B11">
+        <v>2.3325</v>
+      </c>
+      <c r="C11">
+        <v>42203</v>
+      </c>
+      <c r="D11">
+        <v>800</v>
+      </c>
+      <c r="E11">
+        <v>0.2268</v>
+      </c>
+      <c r="F11">
+        <v>42203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>900</v>
+      </c>
+      <c r="B12">
+        <v>3.004</v>
+      </c>
+      <c r="C12">
+        <v>48007</v>
+      </c>
+      <c r="D12">
+        <v>900</v>
+      </c>
+      <c r="E12">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="F12">
+        <v>48007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>3.6555</v>
+      </c>
+      <c r="C13">
+        <v>52099</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>0.28789999999999999</v>
+      </c>
+      <c r="F13">
+        <v>52099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2000</v>
+      </c>
+      <c r="B14">
+        <v>15.117900000000001</v>
+      </c>
+      <c r="C14">
+        <v>104113</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="F14">
+        <v>104113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3000</v>
+      </c>
+      <c r="B15">
+        <v>34.096800000000002</v>
+      </c>
+      <c r="C15">
+        <v>156855</v>
+      </c>
+      <c r="D15">
+        <v>3000</v>
+      </c>
+      <c r="E15">
+        <v>1.0210999999999999</v>
+      </c>
+      <c r="F15">
+        <v>156855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5000</v>
+      </c>
+      <c r="B16">
+        <v>92.123000000000005</v>
+      </c>
+      <c r="C16">
+        <v>262485</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16">
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="F16">
+        <v>262485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7500</v>
+      </c>
+      <c r="B17">
+        <v>206.20699999999999</v>
+      </c>
+      <c r="C17">
+        <v>392510</v>
+      </c>
+      <c r="D17">
+        <v>7500</v>
+      </c>
+      <c r="E17">
+        <v>2.8607999999999998</v>
+      </c>
+      <c r="F17">
+        <v>392510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2875D-0FFF-42A2-987E-555DC8AD7FA6}">
-  <dimension ref="B1:B20"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="69.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+    <row r="16" spans="2:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
